--- a/tutorial8/TernaryPlot.xlsx
+++ b/tutorial8/TernaryPlot.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Acad stuff\SEM V\CH3030\MATLAB_solns\tutorial8\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="4" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="2 Folk QFL" sheetId="3" r:id="rId3"/>
     <sheet name="3 Tri-Plot" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -173,15 +178,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,144 +239,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,7 +249,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,13 +261,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,194 +277,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="38">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -958,295 +637,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1258,38 +659,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1302,9 +688,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1315,12 +698,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1340,6 +717,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1349,71 +744,73 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1422,7 +819,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1440,10 +837,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.034068907963467"/>
-          <c:y val="0.0434567833643576"/>
-          <c:w val="0.931862184073066"/>
-          <c:h val="0.842466827262863"/>
+          <c:x val="3.4068907963467003E-2"/>
+          <c:y val="4.3456783364357598E-2"/>
+          <c:w val="0.93186218407306598"/>
+          <c:h val="0.84246682726286304"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1487,9 +884,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'1 Ternary'!$K$13:$K$24</c:f>
@@ -1587,15 +981,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Triange"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Triange</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Triange</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1609,9 +995,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'1 Ternary'!$W$4:$W$7</c:f>
@@ -1686,9 +1069,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'1 Ternary'!$W$8:$W$9</c:f>
@@ -1751,9 +1131,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'1 Ternary'!$W$10:$W$11</c:f>
@@ -1816,9 +1193,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'1 Ternary'!$W$12:$W$13</c:f>
@@ -1881,9 +1255,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'1 Ternary'!$W$14:$W$15</c:f>
@@ -1946,9 +1317,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'1 Ternary'!$W$16:$W$17</c:f>
@@ -2011,9 +1379,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'1 Ternary'!$W$18:$W$19</c:f>
@@ -2076,9 +1441,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'1 Ternary'!$W$20:$W$21</c:f>
@@ -2141,9 +1503,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'1 Ternary'!$W$22:$W$23</c:f>
@@ -2206,9 +1565,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'1 Ternary'!$W$24:$W$25</c:f>
@@ -2271,9 +1627,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'1 Ternary'!$W$26:$W$27</c:f>
@@ -2336,9 +1689,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'1 Ternary'!$W$28:$W$29</c:f>
@@ -2401,9 +1751,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'1 Ternary'!$W$30:$W$31</c:f>
@@ -2440,15 +1787,7 @@
           <c:idx val="14"/>
           <c:order val="14"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Left Label"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Left Label</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Left Label</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2463,15 +1802,17 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95a10261-6a17-4586-bd4f-e725256d83bb}" type="CELLRANGE">
+                    <a:fld id="{58851C41-0E1F-4160-90FD-BB3FD512AE55}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2484,7 +1825,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2514,6 +1854,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -2526,23 +1867,8 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2589,15 +1915,7 @@
           <c:idx val="15"/>
           <c:order val="15"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Top Label"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Top Label</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Top Label</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2612,15 +1930,17 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15dcdc7a-2664-4f14-9f15-8fd3a9e6366a}" type="CELLRANGE">
+                    <a:fld id="{8F957B55-4EF7-4678-82D4-91DC789AC9FB}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2633,7 +1953,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2663,6 +1982,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2675,7 +1995,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2738,15 +2057,7 @@
           <c:idx val="16"/>
           <c:order val="16"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Right Label"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Right Label</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Right Label</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2761,15 +2072,17 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9f2a74c2-7d72-42a5-8f4d-9bba77036ae7}" type="CELLRANGE">
+                    <a:fld id="{4E419177-59DE-4786-A3E9-EBC4890CDCE5}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2782,7 +2095,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2812,6 +2124,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -2824,23 +2137,8 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2919,9 +2217,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'1 Ternary'!$K$25:$K$26</c:f>
@@ -2987,9 +2282,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'1 Ternary'!$K$33</c:f>
@@ -3049,9 +2341,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'1 Ternary'!$K$34:$K$36</c:f>
@@ -3062,10 +2351,10 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.5</c:v>
+                  <c:v>71.499999999999986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.9739478957916</c:v>
+                  <c:v>86.973947895791596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3080,10 +2369,10 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>28.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0240480961924</c:v>
+                  <c:v>12.024048096192384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3123,9 +2412,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'1 Ternary'!$K$37:$K$38</c:f>
@@ -3191,9 +2477,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'1 Ternary'!$K$39</c:f>
@@ -3201,7 +2484,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>39.995</c:v>
+                  <c:v>39.994999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3228,11 +2511,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="554838808"/>
-        <c:axId val="554841760"/>
+        <c:axId val="154950112"/>
+        <c:axId val="154958816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="554838808"/>
+        <c:axId val="154950112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-10"/>
@@ -3243,31 +2526,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="554841760"/>
+        <c:crossAx val="154958816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="554841760"/>
+        <c:axId val="154958816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-10"/>
@@ -3278,26 +2542,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="554838808"/>
+        <c:crossAx val="154950112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3319,10 +2564,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.290412443516214"/>
-          <c:y val="0.897775460635682"/>
-          <c:w val="0.437757909802993"/>
-          <c:h val="0.0508665226609861"/>
+          <c:x val="0.29041244351621398"/>
+          <c:y val="0.89777546063568203"/>
+          <c:w val="0.43775790980299301"/>
+          <c:h val="5.0866522660986097E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3350,6 +2595,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3379,6 +2625,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3392,7 +2639,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3410,14 +2657,14 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0376068376068376"/>
-          <c:y val="0.0480087206105527"/>
-          <c:w val="0.924786324786325"/>
-          <c:h val="0.82869512503574"/>
+          <c:x val="3.7606837606837598E-2"/>
+          <c:y val="4.8008720610552703E-2"/>
+          <c:w val="0.92478632478632505"/>
+          <c:h val="0.82869512503574005"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="5"/>
@@ -3458,9 +2705,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'2 Folk QFL'!$K$13:$K$16</c:f>
@@ -3541,9 +2785,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'2 Folk QFL'!$K$17:$K$20</c:f>
@@ -3551,16 +2792,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>84.6938775510204</c:v>
+                  <c:v>84.693877551020421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.5957446808511</c:v>
+                  <c:v>76.595744680851055</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>71.875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88.6792452830189</c:v>
+                  <c:v>88.679245283018858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3572,16 +2813,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10.2040816326531</c:v>
+                  <c:v>10.204081632653061</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.8936170212766</c:v>
+                  <c:v>14.893617021276597</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.54716981132075</c:v>
+                  <c:v>7.5471698113207539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3592,15 +2833,7 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Triangle"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Triangle</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Triangle</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -3614,9 +2847,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'2 Folk QFL'!$X$4:$X$7</c:f>
@@ -3665,15 +2895,7 @@
           <c:idx val="0"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Ref Lines"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ref Lines</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Ref Lines</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="3175" cap="rnd">
@@ -3691,9 +2913,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'2 Folk QFL'!$X$8:$X$19</c:f>
@@ -3815,20 +3034,17 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7892897c-3b3b-4ed2-9768-a39950ec420c}" type="CELLRANGE">
+                    <a:fld id="{7892897C-3B3B-4ED2-9768-A39950EC420C}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:cs typeface="+mn-ea"/>
-                    </a:endParaRPr>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3841,9 +3057,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3871,6 +3085,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -3883,23 +3098,8 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3971,20 +3171,17 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{f5cad7f7-b6a9-4fd2-b730-367deea0336e}" type="CELLRANGE">
+                    <a:fld id="{F5CAD7F7-B6A9-4FD2-B730-367DEEA0336E}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:cs typeface="+mn-ea"/>
-                    </a:endParaRPr>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3997,9 +3194,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4027,6 +3222,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -4039,23 +3235,8 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -4127,20 +3308,17 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11e8d308-92f8-4d5f-bf61-bcd5a3b662dd}" type="CELLRANGE">
+                    <a:fld id="{11E8D308-92F8-4D5F-BF61-BCD5A3B662DD}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:cs typeface="+mn-ea"/>
-                    </a:endParaRPr>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4153,9 +3331,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4183,6 +3359,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -4195,23 +3372,8 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -4262,11 +3424,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="615926072"/>
-        <c:axId val="615927712"/>
+        <c:axId val="154943584"/>
+        <c:axId val="154957184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="615926072"/>
+        <c:axId val="154943584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-10"/>
@@ -4277,31 +3439,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="615927712"/>
+        <c:crossAx val="154957184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="615927712"/>
+        <c:axId val="154957184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-10"/>
@@ -4312,26 +3455,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="615926072"/>
+        <c:crossAx val="154943584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4349,10 +3473,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.289913183928932"/>
-          <c:y val="0.902890420524776"/>
-          <c:w val="0.481712093680598"/>
-          <c:h val="0.0752874337431544"/>
+          <c:x val="0.28991318392893201"/>
+          <c:y val="0.90289042052477597"/>
+          <c:w val="0.48171209368059797"/>
+          <c:h val="7.52874337431544E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4380,6 +3504,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4409,6 +3534,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5532,7 +4658,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -5546,14 +4672,14 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6348730" y="290195"/>
-        <a:ext cx="4357370" cy="3538855"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5576,7 +4702,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Speech Bubble: Rectangle 4"/>
         <xdr:cNvSpPr/>
@@ -5618,7 +4744,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Enter Corner</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5657,7 +4782,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5678,7 +4803,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -5692,14 +4817,14 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7524750" y="185420"/>
-        <a:ext cx="3657600" cy="2910205"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5722,7 +4847,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Speech Bubble: Rectangle 3"/>
         <xdr:cNvSpPr/>
@@ -5764,7 +4889,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Enter Corner</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5803,7 +4927,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5838,7 +4962,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5860,7 +4984,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5928,7 +5052,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6230,29 +5354,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6283,32 +5407,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="8.71428571428571" customWidth="1"/>
-    <col min="3" max="10" width="6.71428571428571" customWidth="1"/>
-    <col min="11" max="11" width="14.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:1">
+    <row r="1" spans="1:24" ht="18">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:1">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -6317,1570 +5439,1568 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
-      <c r="V3" s="57" t="s">
+      <c r="K3" s="42"/>
+      <c r="L3" s="43"/>
+      <c r="V3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="58"/>
-      <c r="X3" s="59"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="46"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="13">
         <v>0</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="36" t="s">
         <v>15</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="X4" s="53">
+      <c r="X4" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="10:24">
-      <c r="J5" s="28" t="s">
+    <row r="5" spans="1:24">
+      <c r="J5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="13">
         <v>50</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="14">
         <v>100</v>
       </c>
-      <c r="V5" s="60" t="s">
+      <c r="V5" s="36" t="s">
         <v>15</v>
       </c>
       <c r="W5">
         <v>50</v>
       </c>
-      <c r="X5" s="53">
+      <c r="X5" s="32">
         <v>100</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="10:24">
-      <c r="J6" s="31" t="s">
+    <row r="6" spans="1:24">
+      <c r="J6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="16">
         <v>100</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="17">
         <v>0</v>
       </c>
-      <c r="V6" s="60" t="s">
+      <c r="V6" s="36" t="s">
         <v>15</v>
       </c>
       <c r="W6">
         <v>100</v>
       </c>
-      <c r="X6" s="53">
+      <c r="X6" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="22:24">
-      <c r="V7" s="60" t="s">
+    <row r="7" spans="1:24">
+      <c r="V7" s="36" t="s">
         <v>15</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
-      <c r="X7" s="53">
+      <c r="X7" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="22:24">
-      <c r="V8" s="61">
+    <row r="8" spans="1:24">
+      <c r="V8" s="37">
         <v>1</v>
       </c>
       <c r="W8">
         <v>20</v>
       </c>
-      <c r="X8" s="53">
+      <c r="X8" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:24">
-      <c r="F9" s="3" t="s">
+    <row r="9" spans="1:24">
+      <c r="F9" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="V9" s="61">
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="V9" s="37">
         <v>1</v>
       </c>
       <c r="W9">
         <v>60</v>
       </c>
-      <c r="X9" s="53">
+      <c r="X9" s="32">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="7" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="G10" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35" t="s">
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="36"/>
-      <c r="V10" s="61">
+      <c r="L10" s="19"/>
+      <c r="V10" s="37">
         <v>2</v>
       </c>
       <c r="W10">
         <v>40</v>
       </c>
-      <c r="X10" s="53">
+      <c r="X10" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14" t="s">
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="38" t="s">
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="V11" s="61">
+      <c r="V11" s="37">
         <v>2</v>
       </c>
       <c r="W11">
         <v>70</v>
       </c>
-      <c r="X11" s="53">
+      <c r="X11" s="32">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17" t="s">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="64" t="s">
+      <c r="K12" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="64" t="s">
+      <c r="L12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="V12" s="61">
+      <c r="V12" s="37">
         <v>3</v>
       </c>
       <c r="W12">
         <v>60</v>
       </c>
-      <c r="X12" s="53">
+      <c r="X12" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="35">
         <v>0.1</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="35">
         <v>0.89</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="35">
         <v>0.01</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="9">
         <f>SUM(C13:E13)</f>
         <v>1</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="10">
         <f>C13/(F13/100)</f>
         <v>10</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="10">
         <f>D13/(F13/100)</f>
         <v>89</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="10">
         <f>E13/(F13/100)</f>
         <v>1</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="22">
         <f>SUM(G13:I13)</f>
         <v>100</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="23">
         <f t="shared" ref="K13:K16" si="0">I13+(G13/2)</f>
         <v>6</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="23">
         <f t="shared" ref="L13:L16" si="1">G13</f>
         <v>10</v>
       </c>
-      <c r="V13" s="61">
+      <c r="V13" s="37">
         <v>3</v>
       </c>
       <c r="W13">
         <v>80</v>
       </c>
-      <c r="X13" s="53">
+      <c r="X13" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="35">
         <v>0.2</v>
       </c>
-      <c r="D14" s="56">
-        <v>0.785</v>
-      </c>
-      <c r="E14" s="56">
-        <v>0.015</v>
-      </c>
-      <c r="F14" s="22">
+      <c r="D14" s="35">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E14" s="35">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F14" s="9">
         <f>SUM(C14:E14)</f>
         <v>1</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="10">
         <f>C14/(F14/100)</f>
         <v>20</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="10">
         <f>D14/(F14/100)</f>
         <v>78.5</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="10">
         <f>E14/(F14/100)</f>
         <v>1.5</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="22">
         <f>SUM(G14:I14)</f>
         <v>100</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="23">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="23">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="V14" s="61">
+      <c r="V14" s="37">
         <v>4</v>
       </c>
       <c r="W14">
         <v>80</v>
       </c>
-      <c r="X14" s="53">
+      <c r="X14" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="1:24">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:24">
+      <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="35">
         <v>0.3</v>
       </c>
-      <c r="D15" s="56">
+      <c r="D15" s="35">
         <v>0.68</v>
       </c>
-      <c r="E15" s="56">
+      <c r="E15" s="35">
         <v>0.02</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="9">
         <f>SUM(C15:E15)</f>
         <v>1</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="10">
         <f>C15/(F15/100)</f>
         <v>30</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="10">
         <f>D15/(F15/100)</f>
         <v>68</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="10">
         <f>E15/(F15/100)</f>
         <v>2</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="22">
         <f>SUM(G15:I15)</f>
         <v>100</v>
       </c>
-      <c r="K15" s="41">
+      <c r="K15" s="23">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="23">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="V15" s="62">
+      <c r="V15" s="38">
         <v>4</v>
       </c>
-      <c r="W15" s="63">
+      <c r="W15" s="39">
         <v>90</v>
       </c>
-      <c r="X15" s="55">
+      <c r="X15" s="34">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="35">
         <v>0.4</v>
       </c>
-      <c r="D16" s="56">
-        <v>0.57</v>
-      </c>
-      <c r="E16" s="56">
+      <c r="D16" s="35">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E16" s="35">
         <v>0.03</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="9">
         <f>SUM(C16:E16)</f>
         <v>1</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="10">
         <f>C16/(F16/100)</f>
         <v>40</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="10">
         <f>D16/(F16/100)</f>
-        <v>57</v>
-      </c>
-      <c r="I16" s="23">
+        <v>56.999999999999993</v>
+      </c>
+      <c r="I16" s="10">
         <f>E16/(F16/100)</f>
         <v>3</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="22">
         <f>SUM(G16:I16)</f>
         <v>100</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="23">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="23">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="V16" s="61">
+      <c r="V16" s="37">
         <v>5</v>
       </c>
       <c r="W16">
         <v>20</v>
       </c>
-      <c r="X16" s="53">
+      <c r="X16" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="35">
         <v>0.5</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="35">
         <v>0.46</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="35">
         <v>0.04</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="9">
         <f t="shared" ref="F17:F39" si="2">SUM(C17:E17)</f>
         <v>1</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="10">
         <f t="shared" ref="G17:G39" si="3">C17/(F17/100)</f>
         <v>50</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="10">
         <f t="shared" ref="H17:H39" si="4">D17/(F17/100)</f>
         <v>46</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="10">
         <f t="shared" ref="I17:I39" si="5">E17/(F17/100)</f>
         <v>4</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="22">
         <f t="shared" ref="J17:J39" si="6">SUM(G17:I17)</f>
         <v>100</v>
       </c>
-      <c r="K17" s="41">
+      <c r="K17" s="23">
         <f t="shared" ref="K17:K39" si="7">I17+(G17/2)</f>
         <v>29</v>
       </c>
-      <c r="L17" s="41">
+      <c r="L17" s="23">
         <f t="shared" ref="L17:L39" si="8">G17</f>
         <v>50</v>
       </c>
-      <c r="V17" s="61">
+      <c r="V17" s="37">
         <v>5</v>
       </c>
       <c r="W17">
         <v>10</v>
       </c>
-      <c r="X17" s="53">
+      <c r="X17" s="32">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="56">
+      <c r="C18" s="35">
         <v>0.6</v>
       </c>
-      <c r="D18" s="56">
+      <c r="D18" s="35">
         <v>0.27</v>
       </c>
-      <c r="E18" s="56">
+      <c r="E18" s="35">
         <v>0.13</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="10">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="10">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="10">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="22">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K18" s="41">
+      <c r="K18" s="23">
         <f t="shared" si="7"/>
         <v>43</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="23">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="V18" s="61">
+      <c r="V18" s="37">
         <v>6</v>
       </c>
       <c r="W18">
         <v>40</v>
       </c>
-      <c r="X18" s="53">
+      <c r="X18" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="56">
-        <v>0.55</v>
-      </c>
-      <c r="D19" s="56">
+      <c r="C19" s="35">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D19" s="35">
         <v>0.1</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19" s="35">
         <v>0.35</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="10">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="10">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="10">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="22">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="23">
         <f t="shared" si="7"/>
         <v>62.5</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="23">
         <f t="shared" si="8"/>
         <v>55</v>
       </c>
-      <c r="V19" s="61">
+      <c r="V19" s="37">
         <v>6</v>
       </c>
       <c r="W19">
         <v>20</v>
       </c>
-      <c r="X19" s="53">
+      <c r="X19" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20" s="35">
         <v>0.5</v>
       </c>
-      <c r="D20" s="56">
-        <v>0.07</v>
-      </c>
-      <c r="E20" s="56">
+      <c r="D20" s="35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E20" s="35">
         <v>0.43</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="10">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="10">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="I20" s="23">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="I20" s="10">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="22">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K20" s="41">
+      <c r="K20" s="23">
         <f t="shared" si="7"/>
         <v>68</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L20" s="23">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="V20" s="61">
+      <c r="V20" s="37">
         <v>7</v>
       </c>
       <c r="W20">
         <v>60</v>
       </c>
-      <c r="X20" s="53">
+      <c r="X20" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="35">
         <v>0.4</v>
       </c>
-      <c r="D21" s="56">
+      <c r="D21" s="35">
         <v>0.03</v>
       </c>
-      <c r="E21" s="56">
-        <v>0.57</v>
-      </c>
-      <c r="F21" s="22">
+      <c r="E21" s="35">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F21" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="10">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="10">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="10">
         <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-      <c r="J21" s="40">
+        <v>56.999999999999993</v>
+      </c>
+      <c r="J21" s="22">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K21" s="41">
+      <c r="K21" s="23">
         <f t="shared" si="7"/>
         <v>77</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="23">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="V21" s="61">
+      <c r="V21" s="37">
         <v>7</v>
       </c>
       <c r="W21">
         <v>30</v>
       </c>
-      <c r="X21" s="53">
+      <c r="X21" s="32">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22" s="35">
         <v>0.3</v>
       </c>
-      <c r="D22" s="56">
+      <c r="D22" s="35">
         <v>0.02</v>
       </c>
-      <c r="E22" s="56">
+      <c r="E22" s="35">
         <v>0.68</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="10">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="10">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="10">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="22">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K22" s="41">
+      <c r="K22" s="23">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
-      <c r="L22" s="41">
+      <c r="L22" s="23">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="V22" s="61">
+      <c r="V22" s="37">
         <v>8</v>
       </c>
       <c r="W22">
         <v>80</v>
       </c>
-      <c r="X22" s="53">
+      <c r="X22" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="1:24">
-      <c r="A23" s="20" t="s">
+    <row r="23" spans="1:24">
+      <c r="A23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="56">
+      <c r="C23" s="35">
         <v>0.2</v>
       </c>
-      <c r="D23" s="56">
+      <c r="D23" s="35">
         <v>0.01</v>
       </c>
-      <c r="E23" s="56">
+      <c r="E23" s="35">
         <v>0.79</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="10">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="10">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="10">
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
-      <c r="J23" s="40">
+      <c r="J23" s="22">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="23">
         <f t="shared" si="7"/>
         <v>89</v>
       </c>
-      <c r="L23" s="41">
+      <c r="L23" s="23">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="S23" s="56"/>
-      <c r="V23" s="62">
+      <c r="S23" s="35"/>
+      <c r="V23" s="38">
         <v>8</v>
       </c>
-      <c r="W23" s="63">
+      <c r="W23" s="39">
         <v>40</v>
       </c>
-      <c r="X23" s="55">
+      <c r="X23" s="34">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="56">
+      <c r="C24" s="35">
         <v>0.1</v>
       </c>
-      <c r="D24" s="56">
-        <v>0.005</v>
-      </c>
-      <c r="E24" s="56">
-        <v>0.895</v>
-      </c>
-      <c r="F24" s="22">
+      <c r="D24" s="35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E24" s="35">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="F24" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="10">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="10">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="10">
         <f t="shared" si="5"/>
         <v>89.5</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="22">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K24" s="41">
+      <c r="K24" s="23">
         <f t="shared" si="7"/>
         <v>94.5</v>
       </c>
-      <c r="L24" s="41">
+      <c r="L24" s="23">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="S24" s="56"/>
-      <c r="V24" s="61">
+      <c r="S24" s="35"/>
+      <c r="V24" s="37">
         <v>9</v>
       </c>
       <c r="W24">
         <v>10</v>
       </c>
-      <c r="X24" s="53">
+      <c r="X24" s="32">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="3:24">
-      <c r="C25" s="56">
+    <row r="25" spans="1:24">
+      <c r="C25" s="35">
         <v>0.1</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="35">
         <v>0.9</v>
       </c>
-      <c r="E25" s="56">
+      <c r="E25" s="35">
         <v>0</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="10">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="10">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J25" s="40">
+      <c r="J25" s="22">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K25" s="41">
+      <c r="K25" s="23">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="L25" s="41">
+      <c r="L25" s="23">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="S25" s="56"/>
-      <c r="V25" s="61">
+      <c r="S25" s="35"/>
+      <c r="V25" s="37">
         <v>9</v>
       </c>
       <c r="W25">
         <v>90</v>
       </c>
-      <c r="X25" s="53">
+      <c r="X25" s="32">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="3:24">
-      <c r="C26" s="56">
+    <row r="26" spans="1:24">
+      <c r="C26" s="35">
         <v>0</v>
       </c>
-      <c r="D26" s="56">
+      <c r="D26" s="35">
         <v>0</v>
       </c>
-      <c r="E26" s="56">
+      <c r="E26" s="35">
         <v>1</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="10">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J26" s="40">
+      <c r="J26" s="22">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K26" s="41">
+      <c r="K26" s="23">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L26" s="23">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S26" s="56"/>
-      <c r="V26" s="61">
+      <c r="S26" s="35"/>
+      <c r="V26" s="37">
         <v>10</v>
       </c>
       <c r="W26">
         <v>20</v>
       </c>
-      <c r="X26" s="53">
+      <c r="X26" s="32">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="3:24">
-      <c r="C27" s="56">
+    <row r="27" spans="1:24">
+      <c r="C27" s="35">
         <v>0.44</v>
       </c>
-      <c r="D27" s="56">
-        <v>0.528</v>
-      </c>
-      <c r="E27" s="56">
-        <v>0.032</v>
-      </c>
-      <c r="F27" s="22">
+      <c r="D27" s="35">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="E27" s="35">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F27" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="10">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="10">
         <f t="shared" si="4"/>
-        <v>52.8</v>
-      </c>
-      <c r="I27" s="23">
+        <v>52.800000000000004</v>
+      </c>
+      <c r="I27" s="10">
         <f t="shared" si="5"/>
         <v>3.2</v>
       </c>
-      <c r="J27" s="40">
+      <c r="J27" s="22">
+        <f t="shared" si="6"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="K27" s="23">
+        <f t="shared" si="7"/>
+        <v>25.2</v>
+      </c>
+      <c r="L27" s="23">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="S27" s="35"/>
+      <c r="V27" s="37">
+        <v>10</v>
+      </c>
+      <c r="W27">
+        <v>80</v>
+      </c>
+      <c r="X27" s="32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="C28" s="35">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D28" s="35">
+        <v>0.11</v>
+      </c>
+      <c r="E28" s="35">
+        <v>0.34</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="2"/>
+        <v>1.01</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="3"/>
+        <v>55.445544554455452</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="4"/>
+        <v>10.891089108910892</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="5"/>
+        <v>33.663366336633665</v>
+      </c>
+      <c r="J28" s="22">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K27" s="41">
+      <c r="K28" s="23">
         <f t="shared" si="7"/>
-        <v>25.2</v>
-      </c>
-      <c r="L27" s="41">
+        <v>61.386138613861391</v>
+      </c>
+      <c r="L28" s="23">
+        <f t="shared" si="8"/>
+        <v>55.445544554455452</v>
+      </c>
+      <c r="S28" s="35"/>
+      <c r="V28" s="37">
+        <v>11</v>
+      </c>
+      <c r="W28">
+        <v>30</v>
+      </c>
+      <c r="X28" s="32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="C29" s="35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D29" s="35">
+        <v>0.69</v>
+      </c>
+      <c r="E29" s="35">
+        <v>0.02</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" si="3"/>
+        <v>28.999999999999996</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J29" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K29" s="23">
+        <f t="shared" si="7"/>
+        <v>16.5</v>
+      </c>
+      <c r="L29" s="23">
+        <f t="shared" si="8"/>
+        <v>28.999999999999996</v>
+      </c>
+      <c r="S29" s="35"/>
+      <c r="V29" s="37">
+        <v>11</v>
+      </c>
+      <c r="W29">
+        <v>70</v>
+      </c>
+      <c r="X29" s="32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="C30" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="D30" s="35">
+        <v>0.03</v>
+      </c>
+      <c r="E30" s="35">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="5"/>
+        <v>56.999999999999993</v>
+      </c>
+      <c r="J30" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K30" s="23">
+        <f t="shared" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="L30" s="23">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="S30" s="35"/>
+      <c r="V30" s="37">
+        <v>12</v>
+      </c>
+      <c r="W30">
+        <v>40</v>
+      </c>
+      <c r="X30" s="32">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="C31" s="35">
+        <v>0.12</v>
+      </c>
+      <c r="D31" s="35">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="E31" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="2"/>
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" si="3"/>
+        <v>11.776251226692837</v>
+      </c>
+      <c r="H31" s="10">
+        <f t="shared" si="4"/>
+        <v>87.242394504416097</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="5"/>
+        <v>0.9813542688910698</v>
+      </c>
+      <c r="J31" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K31" s="23">
+        <f t="shared" si="7"/>
+        <v>6.8694798822374885</v>
+      </c>
+      <c r="L31" s="23">
+        <f t="shared" si="8"/>
+        <v>11.776251226692837</v>
+      </c>
+      <c r="S31" s="35"/>
+      <c r="V31" s="38">
+        <v>12</v>
+      </c>
+      <c r="W31" s="39">
+        <v>60</v>
+      </c>
+      <c r="X31" s="34">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="C32" s="35">
+        <v>0.18</v>
+      </c>
+      <c r="D32" s="35">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E32" s="35">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="5"/>
+        <v>80.8</v>
+      </c>
+      <c r="J32" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K32" s="23">
+        <f t="shared" si="7"/>
+        <v>89.8</v>
+      </c>
+      <c r="L32" s="23">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="3:19">
+      <c r="C33" s="35">
+        <v>0.35</v>
+      </c>
+      <c r="D33" s="35">
+        <v>0.625</v>
+      </c>
+      <c r="E33" s="35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="10">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="H33" s="10">
+        <f t="shared" si="4"/>
+        <v>62.5</v>
+      </c>
+      <c r="I33" s="10">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="J33" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K33" s="23">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="L33" s="23">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="S33" s="35"/>
+    </row>
+    <row r="34" spans="3:19">
+      <c r="C34" s="35">
+        <v>0.44</v>
+      </c>
+      <c r="D34" s="35">
+        <v>0.22</v>
+      </c>
+      <c r="E34" s="35">
+        <v>0.34</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="10">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="H34" s="10">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="I34" s="10">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="J34" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K34" s="23">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="L34" s="23">
         <f t="shared" si="8"/>
         <v>44</v>
       </c>
-      <c r="S27" s="56"/>
-      <c r="V27" s="61">
-        <v>10</v>
-      </c>
-      <c r="W27">
-        <v>80</v>
-      </c>
-      <c r="X27" s="53">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24">
-      <c r="C28" s="56">
-        <v>0.56</v>
-      </c>
-      <c r="D28" s="56">
-        <v>0.11</v>
-      </c>
-      <c r="E28" s="56">
-        <v>0.34</v>
-      </c>
-      <c r="F28" s="22">
+      <c r="S34" s="35"/>
+    </row>
+    <row r="35" spans="3:19">
+      <c r="C35" s="35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D35" s="35">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E35" s="35">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F35" s="9">
         <f t="shared" si="2"/>
-        <v>1.01</v>
-      </c>
-      <c r="G28" s="23">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10">
         <f t="shared" si="3"/>
-        <v>55.4455445544555</v>
-      </c>
-      <c r="H28" s="23">
+        <v>28.999999999999996</v>
+      </c>
+      <c r="H35" s="10">
         <f t="shared" si="4"/>
-        <v>10.8910891089109</v>
-      </c>
-      <c r="I28" s="23">
+        <v>14.000000000000002</v>
+      </c>
+      <c r="I35" s="10">
         <f t="shared" si="5"/>
-        <v>33.6633663366337</v>
-      </c>
-      <c r="J28" s="40">
+        <v>56.999999999999993</v>
+      </c>
+      <c r="J35" s="22">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K28" s="41">
+      <c r="K35" s="23">
         <f t="shared" si="7"/>
-        <v>61.3861386138614</v>
-      </c>
-      <c r="L28" s="41">
+        <v>71.499999999999986</v>
+      </c>
+      <c r="L35" s="23">
         <f t="shared" si="8"/>
-        <v>55.4455445544555</v>
-      </c>
-      <c r="S28" s="56"/>
-      <c r="V28" s="61">
-        <v>11</v>
-      </c>
-      <c r="W28">
-        <v>30</v>
-      </c>
-      <c r="X28" s="53">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="3:24">
-      <c r="C29" s="56">
-        <v>0.29</v>
-      </c>
-      <c r="D29" s="56">
-        <v>0.69</v>
-      </c>
-      <c r="E29" s="56">
-        <v>0.02</v>
-      </c>
-      <c r="F29" s="22">
+        <v>28.999999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="3:19">
+      <c r="C36" s="35">
+        <v>0.12</v>
+      </c>
+      <c r="D36" s="35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E36" s="35">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" si="2"/>
+        <v>0.998</v>
+      </c>
+      <c r="G36" s="10">
+        <f t="shared" si="3"/>
+        <v>12.024048096192384</v>
+      </c>
+      <c r="H36" s="10">
+        <f t="shared" si="4"/>
+        <v>7.0140280561122257</v>
+      </c>
+      <c r="I36" s="10">
+        <f t="shared" si="5"/>
+        <v>80.961923847695402</v>
+      </c>
+      <c r="J36" s="22">
+        <f t="shared" si="6"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="K36" s="23">
+        <f t="shared" si="7"/>
+        <v>86.973947895791596</v>
+      </c>
+      <c r="L36" s="23">
+        <f t="shared" si="8"/>
+        <v>12.024048096192384</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19">
+      <c r="C37" s="35">
+        <v>0.35</v>
+      </c>
+      <c r="D37" s="35">
+        <v>0.625</v>
+      </c>
+      <c r="E37" s="35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F37" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G37" s="10">
         <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="H29" s="23">
+        <v>35</v>
+      </c>
+      <c r="H37" s="10">
         <f t="shared" si="4"/>
-        <v>69</v>
-      </c>
-      <c r="I29" s="23">
+        <v>62.5</v>
+      </c>
+      <c r="I37" s="10">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="J29" s="40">
+        <v>2.5</v>
+      </c>
+      <c r="J37" s="22">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K29" s="41">
+      <c r="K37" s="23">
         <f t="shared" si="7"/>
-        <v>16.5</v>
-      </c>
-      <c r="L29" s="41">
+        <v>20</v>
+      </c>
+      <c r="L37" s="23">
         <f t="shared" si="8"/>
-        <v>29</v>
-      </c>
-      <c r="S29" s="56"/>
-      <c r="V29" s="61">
-        <v>11</v>
-      </c>
-      <c r="W29">
-        <v>70</v>
-      </c>
-      <c r="X29" s="53">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24">
-      <c r="C30" s="56">
-        <v>0.4</v>
-      </c>
-      <c r="D30" s="56">
-        <v>0.03</v>
-      </c>
-      <c r="E30" s="56">
-        <v>0.57</v>
-      </c>
-      <c r="F30" s="22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="3:19">
+      <c r="C38" s="35">
+        <v>0</v>
+      </c>
+      <c r="D38" s="35">
+        <v>0</v>
+      </c>
+      <c r="E38" s="35">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G38" s="10">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="H30" s="23">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I30" s="23">
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
         <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-      <c r="J30" s="40">
+        <v>100</v>
+      </c>
+      <c r="J38" s="22">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K30" s="41">
+      <c r="K38" s="23">
         <f t="shared" si="7"/>
-        <v>77</v>
-      </c>
-      <c r="L30" s="41">
+        <v>100</v>
+      </c>
+      <c r="L38" s="23">
         <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="S30" s="56"/>
-      <c r="V30" s="61">
-        <v>12</v>
-      </c>
-      <c r="W30">
-        <v>40</v>
-      </c>
-      <c r="X30" s="53">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" spans="3:24">
-      <c r="C31" s="56">
-        <v>0.12</v>
-      </c>
-      <c r="D31" s="56">
-        <v>0.889</v>
-      </c>
-      <c r="E31" s="56">
-        <v>0.01</v>
-      </c>
-      <c r="F31" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:19">
+      <c r="C39" s="35">
+        <v>0.2545</v>
+      </c>
+      <c r="D39" s="35">
+        <v>0.4728</v>
+      </c>
+      <c r="E39" s="35">
+        <v>0.2727</v>
+      </c>
+      <c r="F39" s="9">
         <f t="shared" si="2"/>
-        <v>1.019</v>
-      </c>
-      <c r="G31" s="23">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10">
         <f t="shared" si="3"/>
-        <v>11.7762512266928</v>
-      </c>
-      <c r="H31" s="23">
+        <v>25.45</v>
+      </c>
+      <c r="H39" s="10">
         <f t="shared" si="4"/>
-        <v>87.2423945044161</v>
-      </c>
-      <c r="I31" s="23">
+        <v>47.28</v>
+      </c>
+      <c r="I39" s="10">
         <f t="shared" si="5"/>
-        <v>0.98135426889107</v>
-      </c>
-      <c r="J31" s="40">
+        <v>27.27</v>
+      </c>
+      <c r="J39" s="22">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K31" s="41">
+      <c r="K39" s="23">
         <f t="shared" si="7"/>
-        <v>6.86947988223749</v>
-      </c>
-      <c r="L31" s="41">
-        <f t="shared" si="8"/>
-        <v>11.7762512266928</v>
-      </c>
-      <c r="S31" s="56"/>
-      <c r="V31" s="62">
-        <v>12</v>
-      </c>
-      <c r="W31" s="63">
-        <v>60</v>
-      </c>
-      <c r="X31" s="55">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="3:19">
-      <c r="C32" s="56">
-        <v>0.18</v>
-      </c>
-      <c r="D32" s="56">
-        <v>0.012</v>
-      </c>
-      <c r="E32" s="56">
-        <v>0.808</v>
-      </c>
-      <c r="F32" s="22">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G32" s="23">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="H32" s="23">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-      <c r="I32" s="23">
-        <f t="shared" si="5"/>
-        <v>80.8</v>
-      </c>
-      <c r="J32" s="40">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="K32" s="41">
-        <f t="shared" si="7"/>
-        <v>89.8</v>
-      </c>
-      <c r="L32" s="41">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="S32" s="56"/>
-    </row>
-    <row r="33" spans="3:19">
-      <c r="C33" s="56">
-        <v>0.35</v>
-      </c>
-      <c r="D33" s="56">
-        <v>0.625</v>
-      </c>
-      <c r="E33" s="56">
-        <v>0.025</v>
-      </c>
-      <c r="F33" s="22">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G33" s="23">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="H33" s="23">
-        <f t="shared" si="4"/>
-        <v>62.5</v>
-      </c>
-      <c r="I33" s="23">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-      <c r="J33" s="40">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="K33" s="41">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="L33" s="41">
-        <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="S33" s="56"/>
-    </row>
-    <row r="34" spans="3:19">
-      <c r="C34" s="56">
-        <v>0.44</v>
-      </c>
-      <c r="D34" s="56">
-        <v>0.22</v>
-      </c>
-      <c r="E34" s="56">
-        <v>0.34</v>
-      </c>
-      <c r="F34" s="22">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G34" s="23">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="H34" s="23">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="I34" s="23">
-        <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="J34" s="40">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="K34" s="41">
-        <f t="shared" si="7"/>
-        <v>56</v>
-      </c>
-      <c r="L34" s="41">
-        <f t="shared" si="8"/>
-        <v>44</v>
-      </c>
-      <c r="S34" s="56"/>
-    </row>
-    <row r="35" spans="3:12">
-      <c r="C35" s="56">
-        <v>0.29</v>
-      </c>
-      <c r="D35" s="56">
-        <v>0.14</v>
-      </c>
-      <c r="E35" s="56">
-        <v>0.57</v>
-      </c>
-      <c r="F35" s="22">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G35" s="23">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="H35" s="23">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="I35" s="23">
-        <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-      <c r="J35" s="40">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="K35" s="41">
-        <f t="shared" si="7"/>
-        <v>71.5</v>
-      </c>
-      <c r="L35" s="41">
-        <f t="shared" si="8"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12">
-      <c r="C36" s="56">
-        <v>0.12</v>
-      </c>
-      <c r="D36" s="56">
-        <v>0.07</v>
-      </c>
-      <c r="E36" s="56">
-        <v>0.808</v>
-      </c>
-      <c r="F36" s="22">
-        <f t="shared" si="2"/>
-        <v>0.998</v>
-      </c>
-      <c r="G36" s="23">
-        <f t="shared" si="3"/>
-        <v>12.0240480961924</v>
-      </c>
-      <c r="H36" s="23">
-        <f t="shared" si="4"/>
-        <v>7.01402805611223</v>
-      </c>
-      <c r="I36" s="23">
-        <f t="shared" si="5"/>
-        <v>80.9619238476954</v>
-      </c>
-      <c r="J36" s="40">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="K36" s="41">
-        <f t="shared" si="7"/>
-        <v>86.9739478957916</v>
-      </c>
-      <c r="L36" s="41">
-        <f t="shared" si="8"/>
-        <v>12.0240480961924</v>
-      </c>
-    </row>
-    <row r="37" spans="3:12">
-      <c r="C37" s="56">
-        <v>0.35</v>
-      </c>
-      <c r="D37" s="56">
-        <v>0.625</v>
-      </c>
-      <c r="E37" s="56">
-        <v>0.025</v>
-      </c>
-      <c r="F37" s="22">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G37" s="23">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="H37" s="23">
-        <f t="shared" si="4"/>
-        <v>62.5</v>
-      </c>
-      <c r="I37" s="23">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-      <c r="J37" s="40">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="K37" s="41">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="L37" s="41">
-        <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12">
-      <c r="C38" s="56">
-        <v>0</v>
-      </c>
-      <c r="D38" s="56">
-        <v>0</v>
-      </c>
-      <c r="E38" s="56">
-        <v>1</v>
-      </c>
-      <c r="F38" s="22">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G38" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="23">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="J38" s="40">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="K38" s="41">
-        <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="L38" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12">
-      <c r="C39" s="56">
-        <v>0.2545</v>
-      </c>
-      <c r="D39" s="56">
-        <v>0.4728</v>
-      </c>
-      <c r="E39" s="56">
-        <v>0.2727</v>
-      </c>
-      <c r="F39" s="22">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G39" s="23">
-        <f t="shared" si="3"/>
-        <v>25.45</v>
-      </c>
-      <c r="H39" s="23">
-        <f t="shared" si="4"/>
-        <v>47.28</v>
-      </c>
-      <c r="I39" s="23">
-        <f t="shared" si="5"/>
-        <v>27.27</v>
-      </c>
-      <c r="J39" s="40">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="K39" s="41">
-        <f t="shared" si="7"/>
-        <v>39.995</v>
-      </c>
-      <c r="L39" s="41">
+        <v>39.994999999999997</v>
+      </c>
+      <c r="L39" s="23">
         <f t="shared" si="8"/>
         <v>25.45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="G10:J10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="19.5" spans="1:1">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -7889,23 +7009,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="43" t="s">
+      <c r="X2" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="49"/>
-    </row>
-    <row r="3" ht="15.75" spans="1:26">
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="64"/>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="44" t="s">
+      <c r="X3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="50" t="s">
+      <c r="Y3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="51" t="s">
+      <c r="Z3" s="30" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7913,737 +7033,735 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-      <c r="X4" s="45">
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
+      <c r="X4" s="26">
         <v>0</v>
       </c>
-      <c r="Y4" s="52">
+      <c r="Y4" s="31">
         <v>0</v>
       </c>
-      <c r="Z4" s="53" t="s">
+      <c r="Z4" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="9:26">
-      <c r="I5" s="28" t="s">
+    <row r="5" spans="1:26">
+      <c r="I5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="13">
         <v>0</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="14">
         <v>0</v>
       </c>
-      <c r="W5" s="46"/>
-      <c r="X5" s="45">
+      <c r="W5" s="27"/>
+      <c r="X5" s="26">
         <v>50</v>
       </c>
-      <c r="Y5" s="52">
+      <c r="Y5" s="31">
         <v>100</v>
       </c>
-      <c r="Z5" s="53" t="s">
+      <c r="Z5" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="9:26">
-      <c r="I6" s="28" t="s">
+    <row r="6" spans="1:26">
+      <c r="I6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="13">
         <v>50</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="14">
         <v>100</v>
       </c>
-      <c r="X6" s="45">
+      <c r="X6" s="26">
         <v>100</v>
       </c>
-      <c r="Y6" s="52">
+      <c r="Y6" s="31">
         <v>0</v>
       </c>
-      <c r="Z6" s="53" t="s">
+      <c r="Z6" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="9:26">
-      <c r="I7" s="31" t="s">
+    <row r="7" spans="1:26">
+      <c r="I7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="16">
         <v>100</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="17">
         <v>0</v>
       </c>
-      <c r="X7" s="45">
+      <c r="X7" s="26">
         <v>0</v>
       </c>
-      <c r="Y7" s="52">
+      <c r="Y7" s="31">
         <v>0</v>
       </c>
-      <c r="Z7" s="53" t="s">
+      <c r="Z7" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="24:26">
-      <c r="X8" s="45">
+    <row r="8" spans="1:26">
+      <c r="X8" s="26">
         <v>0</v>
       </c>
-      <c r="Y8" s="52">
+      <c r="Y8" s="31">
         <v>0</v>
       </c>
-      <c r="Z8" s="53">
+      <c r="Z8" s="32">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="6:26">
-      <c r="F9" s="3" t="s">
+    <row r="9" spans="1:26">
+      <c r="F9" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="X9" s="45">
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="X9" s="26">
         <v>47.5</v>
       </c>
-      <c r="Y9" s="52">
+      <c r="Y9" s="31">
         <v>95</v>
       </c>
-      <c r="Z9" s="53">
+      <c r="Z9" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="7" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="G10" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35" t="s">
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="36"/>
-      <c r="X10" s="45">
+      <c r="L10" s="19"/>
+      <c r="X10" s="26">
         <v>52.5</v>
       </c>
-      <c r="Y10" s="52">
+      <c r="Y10" s="31">
         <v>95</v>
       </c>
-      <c r="Z10" s="53">
+      <c r="Z10" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14" t="s">
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="38" t="s">
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="X11" s="45">
+      <c r="X11" s="26">
         <v>62.5</v>
       </c>
-      <c r="Y11" s="52">
+      <c r="Y11" s="31">
         <v>75</v>
       </c>
-      <c r="Z11" s="53">
+      <c r="Z11" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17" t="s">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="64" t="s">
+      <c r="K12" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="64" t="s">
+      <c r="L12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="X12" s="45">
+      <c r="X12" s="26">
         <v>37.5</v>
       </c>
-      <c r="Y12" s="52">
+      <c r="Y12" s="31">
         <v>75</v>
       </c>
-      <c r="Z12" s="53">
+      <c r="Z12" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="8">
         <v>85</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="8">
         <v>10</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="8">
         <v>5</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="9">
         <f>SUM(C13:E13)</f>
         <v>100</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="10">
         <f>C13/(F13/100)</f>
         <v>85</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="10">
         <f>D13/(F13/100)</f>
         <v>10</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="10">
         <f>E13/(F13/100)</f>
         <v>5</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="22">
         <f>SUM(G13:I13)</f>
         <v>100</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="23">
         <f t="shared" ref="K13:K16" si="0">I13+(G13/2)</f>
         <v>47.5</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="23">
         <f t="shared" ref="L13:L16" si="1">G13</f>
         <v>85</v>
       </c>
-      <c r="X13" s="45">
+      <c r="X13" s="26">
         <v>43.75</v>
       </c>
-      <c r="Y13" s="52">
+      <c r="Y13" s="31">
         <v>75</v>
       </c>
-      <c r="Z13" s="53">
+      <c r="Z13" s="32">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="8">
         <v>65</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="8">
         <v>25</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="8">
         <v>10</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="9">
         <f>SUM(C14:E14)</f>
         <v>100</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="10">
         <f>C14/(F14/100)</f>
         <v>65</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="10">
         <f>D14/(F14/100)</f>
         <v>25</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="10">
         <f>E14/(F14/100)</f>
         <v>10</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="22">
         <f>SUM(G14:I14)</f>
         <v>100</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="23">
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="23">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="X14" s="45">
+      <c r="X14" s="26">
         <v>25</v>
       </c>
-      <c r="Y14" s="52">
+      <c r="Y14" s="31">
         <v>0</v>
       </c>
-      <c r="Z14" s="53">
+      <c r="Z14" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="8">
         <v>25</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="8">
         <v>25</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="8">
         <v>50</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="9">
         <f>SUM(C15:E15)</f>
         <v>100</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="10">
         <f>C15/(F15/100)</f>
         <v>25</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="10">
         <f>D15/(F15/100)</f>
         <v>25</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="10">
         <f>E15/(F15/100)</f>
         <v>50</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="22">
         <f>SUM(G15:I15)</f>
         <v>100</v>
       </c>
-      <c r="K15" s="41">
+      <c r="K15" s="23">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="23">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="X15" s="45">
+      <c r="X15" s="26">
         <v>50</v>
       </c>
-      <c r="Y15" s="52">
+      <c r="Y15" s="31">
         <v>0</v>
       </c>
-      <c r="Z15" s="53">
+      <c r="Z15" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="8">
         <v>50</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="8">
         <v>30</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="8">
         <v>20</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="9">
         <f>SUM(C16:E16)</f>
         <v>100</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="10">
         <f>C16/(F16/100)</f>
         <v>50</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="10">
         <f>D16/(F16/100)</f>
         <v>30</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="10">
         <f>E16/(F16/100)</f>
         <v>20</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="22">
         <f>SUM(G16:I16)</f>
         <v>100</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="23">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="23">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="X16" s="45">
+      <c r="X16" s="26">
         <v>50</v>
       </c>
-      <c r="Y16" s="52">
+      <c r="Y16" s="31">
         <v>95</v>
       </c>
-      <c r="Z16" s="53">
+      <c r="Z16" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="8">
         <v>10</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="8">
         <v>10</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="8">
         <v>78</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="9">
         <f t="shared" ref="F17:F20" si="2">SUM(C17:E17)</f>
         <v>98</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="10">
         <f t="shared" ref="G17:G20" si="3">C17/(F17/100)</f>
-        <v>10.2040816326531</v>
-      </c>
-      <c r="H17" s="23">
+        <v>10.204081632653061</v>
+      </c>
+      <c r="H17" s="10">
         <f t="shared" ref="H17:H20" si="4">D17/(F17/100)</f>
-        <v>10.2040816326531</v>
-      </c>
-      <c r="I17" s="23">
+        <v>10.204081632653061</v>
+      </c>
+      <c r="I17" s="10">
         <f t="shared" ref="I17:I20" si="5">E17/(F17/100)</f>
-        <v>79.5918367346939</v>
-      </c>
-      <c r="J17" s="40">
+        <v>79.591836734693885</v>
+      </c>
+      <c r="J17" s="22">
         <f t="shared" ref="J17:J20" si="6">SUM(G17:I17)</f>
         <v>100</v>
       </c>
-      <c r="K17" s="41">
+      <c r="K17" s="23">
         <f t="shared" ref="K17:K20" si="7">I17+(G17/2)</f>
-        <v>84.6938775510204</v>
-      </c>
-      <c r="L17" s="41">
+        <v>84.693877551020421</v>
+      </c>
+      <c r="L17" s="23">
         <f t="shared" ref="L17:L20" si="8">G17</f>
-        <v>10.2040816326531</v>
-      </c>
-      <c r="N17" s="42" t="s">
+        <v>10.204081632653061</v>
+      </c>
+      <c r="N17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="X17" s="45">
+      <c r="X17" s="26">
         <v>50</v>
       </c>
-      <c r="Y17" s="52">
+      <c r="Y17" s="31">
         <v>75</v>
       </c>
-      <c r="Z17" s="53">
+      <c r="Z17" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="8">
         <v>14</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="8">
         <v>15</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="8">
         <v>65</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="9">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="10">
         <f t="shared" si="3"/>
-        <v>14.8936170212766</v>
-      </c>
-      <c r="H18" s="23">
+        <v>14.893617021276597</v>
+      </c>
+      <c r="H18" s="10">
         <f t="shared" si="4"/>
-        <v>15.9574468085106</v>
-      </c>
-      <c r="I18" s="23">
+        <v>15.957446808510639</v>
+      </c>
+      <c r="I18" s="10">
         <f t="shared" si="5"/>
-        <v>69.1489361702128</v>
-      </c>
-      <c r="J18" s="40">
+        <v>69.148936170212764</v>
+      </c>
+      <c r="J18" s="22">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K18" s="41">
+      <c r="K18" s="23">
         <f t="shared" si="7"/>
-        <v>76.5957446808511</v>
-      </c>
-      <c r="L18" s="41">
+        <v>76.595744680851055</v>
+      </c>
+      <c r="L18" s="23">
         <f t="shared" si="8"/>
-        <v>14.8936170212766</v>
-      </c>
-      <c r="X18" s="45">
+        <v>14.893617021276597</v>
+      </c>
+      <c r="X18" s="26">
         <v>56.25</v>
       </c>
-      <c r="Y18" s="52">
+      <c r="Y18" s="31">
         <v>75</v>
       </c>
-      <c r="Z18" s="53">
+      <c r="Z18" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="1:26">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:26">
+      <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="8">
         <v>18</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="8">
         <v>18</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="8">
         <v>60</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="9">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="10">
         <f t="shared" si="3"/>
         <v>18.75</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="10">
         <f t="shared" si="4"/>
         <v>18.75</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="10">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="22">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="23">
         <f t="shared" si="7"/>
         <v>71.875</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="23">
         <f t="shared" si="8"/>
         <v>18.75</v>
       </c>
-      <c r="X19" s="47">
+      <c r="X19" s="28">
         <v>75</v>
       </c>
-      <c r="Y19" s="54">
+      <c r="Y19" s="33">
         <v>0</v>
       </c>
-      <c r="Z19" s="55">
+      <c r="Z19" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:26">
+      <c r="A20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="8">
         <v>8</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="8">
         <v>8</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="8">
         <v>90</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="9">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="10">
         <f t="shared" si="3"/>
-        <v>7.54716981132075</v>
-      </c>
-      <c r="H20" s="23">
+        <v>7.5471698113207539</v>
+      </c>
+      <c r="H20" s="10">
         <f t="shared" si="4"/>
-        <v>7.54716981132075</v>
-      </c>
-      <c r="I20" s="23">
+        <v>7.5471698113207539</v>
+      </c>
+      <c r="I20" s="10">
         <f t="shared" si="5"/>
-        <v>84.9056603773585</v>
-      </c>
-      <c r="J20" s="40">
+        <v>84.905660377358487</v>
+      </c>
+      <c r="J20" s="22">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K20" s="41">
+      <c r="K20" s="23">
         <f t="shared" si="7"/>
-        <v>88.6792452830189</v>
-      </c>
-      <c r="L20" s="41">
+        <v>88.679245283018858</v>
+      </c>
+      <c r="L20" s="23">
         <f t="shared" si="8"/>
-        <v>7.54716981132075</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6">
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" spans="6:6">
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" spans="6:6">
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="6:6">
-      <c r="F24" s="24"/>
-    </row>
-    <row r="25" spans="6:6">
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26" spans="6:6">
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" spans="6:6">
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="6:6">
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="6:6">
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="6:6">
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="6:6">
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="6:6">
-      <c r="F32" s="24"/>
+        <v>7.5471698113207539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="6:14">
-      <c r="F33" s="24"/>
+      <c r="F33" s="11"/>
       <c r="N33" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="6:14">
-      <c r="F34" s="24"/>
+      <c r="F34" s="11"/>
       <c r="N34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="6:6">
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36" s="24"/>
-    </row>
-    <row r="37" spans="6:6">
-      <c r="F37" s="24"/>
-    </row>
-    <row r="38" spans="6:6">
-      <c r="F38" s="24"/>
-    </row>
-    <row r="39" spans="6:6">
-      <c r="F39" s="24"/>
+    <row r="35" spans="6:14">
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="6:14">
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="6:14">
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="6:14">
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="6:14">
+      <c r="F39" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="G10:J10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -8652,10 +7770,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId2" display="https://www.lboro.ac.uk/microsites/research/phys-geog/tri-plot/index.html"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>